--- a/test data/astar 20 tracks.xlsx
+++ b/test data/astar 20 tracks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="526">
   <si>
     <t>Initial Song</t>
   </si>
@@ -1590,6 +1590,9 @@
   <si>
     <t>Average Euclidean Distance</t>
   </si>
+  <si>
+    <t>Initial Popularity</t>
+  </si>
 </sst>
 </file>
 
@@ -2445,15 +2448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG602"/>
+  <dimension ref="A1:AI602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K11" workbookViewId="0">
-      <selection activeCell="AG32" sqref="AG32"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2545,8 +2548,11 @@
       <c r="AG1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2648,8 +2654,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.19458849302974174</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI2">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2751,8 +2761,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.15498951053886173</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI3">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2854,8 +2868,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.18142753748615004</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI4">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2957,8 +2975,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.20668984987696987</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI5">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3060,8 +3082,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.17449003299670676</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI6">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3163,8 +3189,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.10899026215804937</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI7">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3266,8 +3296,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.15103685614761242</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI8">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3369,8 +3403,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.14964135931464065</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI9">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3472,8 +3510,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.14379602014699028</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI10">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3575,8 +3617,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.11978561368136262</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI11">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3678,8 +3724,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.19840188815636911</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI12">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3781,8 +3831,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.15550822549810475</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI13">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3884,8 +3938,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.14648605895955555</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI14">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3987,8 +4045,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.18358473615925944</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI15">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4090,8 +4152,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.27107037817674684</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI16">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4193,8 +4259,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.14255492121189081</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI17">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4296,8 +4366,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.20170987202854826</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI18">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4399,8 +4473,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.13608324850885073</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI19">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4502,8 +4580,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.18625167586382804</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI20">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4605,8 +4687,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.15354998133235478</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI21">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -4708,8 +4794,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.270259277467228</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI22">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -4811,8 +4901,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.23108339286554047</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI23">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -4914,8 +5008,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.1092316912725976</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI24">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -5017,8 +5115,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.28525674152398556</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI25">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -5120,8 +5222,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.11422094127267772</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI26">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -5223,8 +5329,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.19304075834448012</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI27">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -5326,8 +5436,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.38234338655354744</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI28">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -5429,8 +5543,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.16584894755985188</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI29">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -5532,8 +5650,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.20995926534926937</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI30">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5631,8 +5753,12 @@
         <f>AVERAGE(INDEX(AA:AA,2+20*(ROW()-ROW($AE$2))):INDEX(AA:AA,1+20*(ROW()-ROW($AE$2)+1)))</f>
         <v>0.2772303429679967</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI31">
+        <f>AVERAGE(INDEX(B:B,2+20*(ROW()-ROW($AE$2))):INDEX(B:B,1+20*(ROW()-ROW($AE$2)+1)))</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
